--- a/NY_Saratoga/Saratoga_NY_GE20_cleaned.xlsx
+++ b/NY_Saratoga/Saratoga_NY_GE20_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITREPOS\gh_kessler\openelections_work\NY_Saratoga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2879510-7C68-4206-96B8-EA0ABD6AF4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D4FDD-6395-4839-BA7E-E8C01991EB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1660" windowWidth="24260" windowHeight="18850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8150" yWindow="2140" windowWidth="25860" windowHeight="18850" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="presidential" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="248">
   <si>
     <t>Ballston 1</t>
   </si>
@@ -736,9 +736,6 @@
     <t>John T. McDonald III - IND</t>
   </si>
   <si>
-    <t>WriteIns</t>
-  </si>
-  <si>
     <t>Joseph S. Seeman - DEM</t>
   </si>
   <si>
@@ -1163,26 +1160,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1532,7 +1529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1917,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2022,7 +2019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2127,7 +2124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2232,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2302,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2372,7 +2369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2407,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2477,7 +2474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2582,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2687,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2757,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2792,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2862,7 +2859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2897,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2932,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2967,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3002,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3072,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3142,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3177,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3212,7 +3209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3247,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3352,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3422,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3457,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3562,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3597,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3632,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3702,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3737,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3772,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3877,7 +3874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3912,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3947,7 +3944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3982,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4017,7 +4014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4052,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4087,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4122,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4157,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4192,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4227,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4332,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4367,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4402,7 +4399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4437,7 +4434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4542,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4647,7 +4644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4717,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4822,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4857,7 +4854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4892,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4927,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4962,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4997,7 +4994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5032,7 +5029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5067,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5172,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5207,7 +5204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5242,7 +5239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5277,7 +5274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5312,7 +5309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5382,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -5452,7 +5449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -5487,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -5522,7 +5519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -5557,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -5592,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5662,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -5767,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -5802,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -5872,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -6082,7 +6079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -6222,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -6257,7 +6254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -6327,7 +6324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -6362,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -6397,7 +6394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -6467,7 +6464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -6537,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -6572,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -6607,7 +6604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -6747,7 +6744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6782,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -6852,7 +6849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -6887,7 +6884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -7097,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -7132,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -7167,7 +7164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -7202,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -7237,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -7272,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -7307,7 +7304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -7342,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -7377,7 +7374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -7412,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -7447,7 +7444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -7517,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -7587,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -7622,7 +7619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -7657,7 +7654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -7692,7 +7689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -7727,7 +7724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -7762,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -7797,7 +7794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -7832,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -7867,7 +7864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -7902,7 +7899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -7972,7 +7969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -8007,7 +8004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -8042,7 +8039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -8090,21 +8087,21 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -8136,7 +8133,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8168,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8200,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8232,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8264,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8296,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8328,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8360,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8392,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8424,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8456,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8488,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8520,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8552,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8584,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8616,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8648,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8680,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8712,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8744,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8776,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8808,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8840,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8872,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8904,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -8936,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8968,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9000,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9032,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9064,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9096,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9128,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9160,7 +9157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9192,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9224,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9288,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9320,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9352,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9384,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9416,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9448,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9480,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9512,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9544,7 +9541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -9608,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -9640,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -9672,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -9704,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -9736,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -9768,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -9800,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -9832,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -9864,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -9896,7 +9893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -9928,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -9960,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -9992,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -10024,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -10056,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -10088,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -10120,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -10152,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -10184,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -10216,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -10248,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -10280,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -10312,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -10344,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -10376,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -10408,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -10440,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -10472,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -10504,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -10536,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -10568,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -10600,7 +10597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -10632,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -10664,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -10696,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -10728,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -10760,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -10792,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>140</v>
       </c>
@@ -10824,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -10856,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -10888,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>143</v>
       </c>
@@ -10920,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>144</v>
       </c>
@@ -10952,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -10984,7 +10981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -11016,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -11048,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -11080,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -11112,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>150</v>
       </c>
@@ -11144,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -11176,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -11208,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -11240,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -11272,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>155</v>
       </c>
@@ -11304,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -11336,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>157</v>
       </c>
@@ -11368,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>158</v>
       </c>
@@ -11400,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>159</v>
       </c>
@@ -11432,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>160</v>
       </c>
@@ -11464,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -11496,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>162</v>
       </c>
@@ -11528,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>163</v>
       </c>
@@ -11560,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -11592,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>168</v>
       </c>
@@ -11624,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>169</v>
       </c>
@@ -11656,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>170</v>
       </c>
@@ -11688,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -11720,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -11752,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -11784,7 +11781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -11816,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -11848,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -11880,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -11912,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -11957,20 +11954,20 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -11999,7 +11996,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12028,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -12057,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -12086,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -12115,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -12144,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -12202,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12231,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -12260,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12289,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -12318,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -12347,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -12376,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -12405,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -12434,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -12463,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -12492,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -12521,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -12550,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -12579,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -12608,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -12637,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -12666,7 +12663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -12695,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -12724,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -12753,7 +12750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -12782,7 +12779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -12811,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -12840,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -12869,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -12898,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -12927,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -12956,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -12985,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -13014,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -13043,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -13072,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -13101,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -13130,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -13159,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -13188,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -13217,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -13246,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -13275,7 +13272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -13304,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -13333,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -13362,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -13391,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -13420,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -13449,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -13478,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>134</v>
       </c>
@@ -13507,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -13536,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -13565,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -13594,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -13623,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -13652,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -13681,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -13710,7 +13707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -13739,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -13768,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -13797,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -13826,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>182</v>
       </c>
@@ -13855,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>183</v>
       </c>
@@ -13884,7 +13881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>184</v>
       </c>
@@ -13913,7 +13910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>185</v>
       </c>
@@ -13942,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -13971,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -14000,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -14029,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>189</v>
       </c>
@@ -14058,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -14087,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -14116,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>192</v>
       </c>
@@ -14145,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>193</v>
       </c>
@@ -14174,7 +14171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -14203,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>195</v>
       </c>
@@ -14245,18 +14242,18 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -14285,7 +14282,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -14314,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -14343,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -14372,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -14401,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -14430,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -14459,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -14488,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -14517,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -14546,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14575,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -14604,7 +14601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -14662,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -14691,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -14720,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -14749,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -14778,7 +14775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -14807,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -14836,7 +14833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -14865,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -14894,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -14923,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -14952,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -14981,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -15010,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -15039,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -15068,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -15097,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -15126,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -15155,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -15184,7 +15181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -15213,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -15242,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -15271,7 +15268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -15300,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -15329,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -15358,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -15387,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -15416,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -15445,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -15474,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -15503,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -15532,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -15561,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -15590,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -15619,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -15648,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -15677,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -15706,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -15735,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -15764,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -15793,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -15822,7 +15819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -15851,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -15880,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -15909,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -15938,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>144</v>
       </c>
@@ -15967,7 +15964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -15996,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>147</v>
       </c>
@@ -16025,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -16054,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -16083,7 +16080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>150</v>
       </c>
@@ -16112,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>151</v>
       </c>
@@ -16141,7 +16138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -16170,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -16199,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -16228,7 +16225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -16257,7 +16254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -16286,7 +16283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -16315,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -16344,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -16373,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -16402,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -16431,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -16460,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -16489,7 +16486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -16518,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>168</v>
       </c>
@@ -16547,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -16576,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -16605,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -16634,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -16663,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -16692,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>174</v>
       </c>
@@ -16721,7 +16718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -16750,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -16779,7 +16776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -16808,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -16837,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -16866,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -16895,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -16924,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -16953,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -16982,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -17011,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -17040,7 +17037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -17069,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -17098,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -17127,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>189</v>
       </c>
@@ -17156,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -17185,7 +17182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -17214,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -17243,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>193</v>
       </c>
@@ -17272,7 +17269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -17301,7 +17298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>195</v>
       </c>
@@ -17343,19 +17340,19 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -17381,7 +17378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17407,7 +17404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17433,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17459,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -17485,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -17511,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -17537,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -17563,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -17589,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -17615,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -17641,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -17667,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -17693,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -17719,7 +17716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -17745,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -17771,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -17797,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -17823,7 +17820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -17849,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -17875,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -17901,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -17927,7 +17924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -17953,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -17979,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -18005,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -18031,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -18057,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -18083,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -18109,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -18135,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -18161,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -18187,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -18213,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -18239,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -18265,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -18291,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -18317,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -18343,7 +18340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -18369,7 +18366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -18395,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -18421,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -18447,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -18473,7 +18470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -18499,7 +18496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -18525,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -18551,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -18577,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -18603,7 +18600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -18629,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -18655,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -18681,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -18707,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -18733,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -18759,7 +18756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -18785,7 +18782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -18811,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -18837,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -18863,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -18889,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -18915,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -18941,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -18967,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -18993,7 +18990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -19019,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -19045,7 +19042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -19071,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -19097,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -19123,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -19149,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -19175,7 +19172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -19201,7 +19198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -19227,7 +19224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -19253,7 +19250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -19279,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -19305,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -19331,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -19357,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -19383,7 +19380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -19409,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -19435,7 +19432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -19461,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>113</v>
       </c>
@@ -19487,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -19513,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -19539,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>116</v>
       </c>
@@ -19565,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -19591,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -19617,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -19643,7 +19640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>146</v>
       </c>
@@ -19669,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -19695,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -19721,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -19757,23 +19754,23 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -19793,7 +19790,7 @@
         <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>197</v>
@@ -19802,7 +19799,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -19831,7 +19828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -19860,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -19889,7 +19886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -19918,7 +19915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -19947,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -19976,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -20005,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -20047,37 +20044,37 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>206</v>
@@ -20089,7 +20086,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -20118,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -20147,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -20176,7 +20173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -20205,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -20234,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -20263,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -20292,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -20321,7 +20318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -20350,7 +20347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -20379,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -20408,7 +20405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -20437,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -20466,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -20495,7 +20492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -20524,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -20553,7 +20550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -20582,7 +20579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -20611,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -20640,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -20669,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -20698,7 +20695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -20727,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -20756,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -20785,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -20814,7 +20811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -20843,7 +20840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -20872,7 +20869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -20901,7 +20898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -20930,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -20959,7 +20956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -20988,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -21017,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -21046,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -21075,7 +21072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -21104,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -21133,7 +21130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -21162,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -21191,7 +21188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -21220,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -21249,7 +21246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -21278,7 +21275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -21307,7 +21304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -21336,7 +21333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -21365,7 +21362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -21394,7 +21391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -21423,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -21452,7 +21449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -21481,7 +21478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -21510,7 +21507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -21539,7 +21536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -21568,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -21597,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -21626,7 +21623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -21655,7 +21652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -21684,7 +21681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -21713,7 +21710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -21742,7 +21739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -21771,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -21800,7 +21797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -21829,7 +21826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -21858,7 +21855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -21887,7 +21884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -21916,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -21945,7 +21942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -21974,7 +21971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -22003,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -22032,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -22061,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -22090,7 +22087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -22119,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -22148,7 +22145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -22177,7 +22174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -22206,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -22235,7 +22232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -22264,7 +22261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -22293,7 +22290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -22322,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -22351,7 +22348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -22380,7 +22377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -22409,7 +22406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -22438,7 +22435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -22467,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -22496,7 +22493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -22525,7 +22522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -22554,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -22583,7 +22580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -22612,7 +22609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>114</v>
       </c>
@@ -22641,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -22670,7 +22667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -22699,7 +22696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -22728,7 +22725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>133</v>
       </c>
@@ -22757,7 +22754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>134</v>
       </c>
@@ -22799,37 +22796,37 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>206</v>
@@ -22841,7 +22838,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -22870,7 +22867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -22899,7 +22896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -22928,7 +22925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -22957,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -22986,7 +22983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -23015,7 +23012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -23044,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -23073,7 +23070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -23102,7 +23099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -23131,7 +23128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -23160,7 +23157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -23189,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -23218,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -23247,7 +23244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -23276,7 +23273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -23305,7 +23302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -23334,7 +23331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -23363,7 +23360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -23392,7 +23389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -23421,7 +23418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -23450,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -23479,7 +23476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -23508,7 +23505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -23537,7 +23534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -23566,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -23595,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -23624,7 +23621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -23653,7 +23650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -23682,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -23711,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -23740,7 +23737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -23769,7 +23766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -23798,7 +23795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -23827,7 +23824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -23856,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -23885,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -23914,7 +23911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -23943,7 +23940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -23972,7 +23969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -24001,7 +23998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -24030,7 +24027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -24059,7 +24056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -24088,7 +24085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -24117,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -24146,7 +24143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -24175,7 +24172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -24204,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -24233,7 +24230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -24262,7 +24259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -24291,7 +24288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -24320,7 +24317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -24349,7 +24346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -24378,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -24407,7 +24404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -24436,7 +24433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -24465,7 +24462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -24494,7 +24491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
@@ -24523,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -24552,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -24581,7 +24578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>162</v>
       </c>
@@ -24610,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -24639,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -24668,7 +24665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -24697,7 +24694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -24726,7 +24723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -24755,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -24784,7 +24781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>169</v>
       </c>
@@ -24813,7 +24810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -24842,7 +24839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -24871,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>172</v>
       </c>
@@ -24900,7 +24897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -24929,7 +24926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -24958,7 +24955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -24987,7 +24984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -25016,7 +25013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -25045,7 +25042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -25074,7 +25071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -25103,7 +25100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -25132,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -25161,7 +25158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -25190,7 +25187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -25219,7 +25216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>192</v>
       </c>
@@ -25248,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -25277,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -25306,7 +25303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>195</v>
       </c>
@@ -25344,45 +25341,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFA0423-2963-4BC3-A9B6-215086CE0734}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>206</v>
@@ -25394,7 +25391,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -25426,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -25458,7 +25455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -25490,7 +25487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -25522,7 +25519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -25554,7 +25551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -25586,7 +25583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -25618,7 +25615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -25650,7 +25647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
